--- a/similarities/split_global/harmonic_similarity_timestamps_192.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_192.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,642 +484,688 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:07.480000', '0:00:13.840000'), ('0:00:15.780000', '0:00:21.280000')]</t>
+          <t>('0:00:41.780000', '0:00:50.420000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000'), ('0:01:20.200000', '0:01:26.860000')]</t>
+          <t>('0:00:14.220000', '0:00:46.760000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=7.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=41.78</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=14.22</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_204</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'D:aug/F#', 'G:maj']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'E:aug', 'A']]</t>
+          <t>['C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:14.480000', '0:01:22.900000')]</t>
+          <t>('0:01:03.380000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:46.416525', '0:00:51.776584')]</t>
+          <t>('0:00:07.640000', '0:00:17.660000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-204#t=74.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=63.38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=46.416525']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=7.64</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['F:7/A#', 'A#:min', 'D#:min/A#']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000'), ('0:00:27.520000', '0:00:35.760000')]</t>
+          <t>('0:00:16.040000', '0:00:24.060000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:49.900000'), ('0:00:24.420000', '0:00:32.620000')]</t>
+          <t>('0:01:02.020000', '0:01:11.860000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=27.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=24.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=62.02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:03.400000', '0:00:10.800000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:00:01.302038', '0:00:05.439841')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=3.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:02:38.300000', '0:02:41.560000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:00:04.940000', '0:00:23.240000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=158.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-8#t=4.94</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_127</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['E', 'E:aug', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['D:maj/F#', 'D:aug/F#', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:04:21.680000', '0:04:29.360000')]</t>
+          <t>('0:00:46.416525', '0:00:51.776584')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:03:47.460000', '0:04:01.440000')]</t>
+          <t>('0:01:18.760000', '0:01:27.200000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=261.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=46.416525</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=227.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-127#t=78.76</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
+          <t>('0:00:08.158789', '0:00:22.589990')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:11.210000', '0:00:14.450000')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Db', 'Eb:min7', 'Ab:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D', 'E:min7', 'A:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:38.860000', '0:00:42.220000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:30.105000', '0:00:35.013000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=38.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=30.105</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:08.120000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=64.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:45.400000', '0:00:48.120000'), ('0:01:38.020000', '0:01:50.760000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:03:00.060000', '0:03:02.260000'), ('0:00:22.660000', '0:00:29.320000')]</t>
+          <t>('0:01:43.520929', '0:01:48.664149')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=45.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=98.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=180.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=22.66']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:01:00.760000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:01:43', '0:02:02.840000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=60.76</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=103.0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>isophonics_98</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D/b7', 'G/3', 'D', 'G', 'D/3']]</t>
+          <t>['Ab:7', 'Db', 'Ab:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['D:7', 'G', 'D:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:23.703945', '0:00:29.172244')]</t>
+          <t>('0:00:45.100000', '0:00:48.450000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:09.280000', '0:00:12.280000')]</t>
+          <t>('0:00:18.076336', '0:00:30.797732')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=23.703945']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=45.1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=9.28']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-98#t=18.076336</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Ab']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:27.910000', '0:01:48.850000')]</t>
+          <t>('0:01:13.620000', '0:01:21.040000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:35.997000', '0:00:42.131000')]</t>
+          <t>('0:00:32.980000', '0:00:35.260000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=87.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=73.62</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=32.98</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>['A', 'E/4', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['C', 'G', 'F', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:22.600000', '0:00:29.840000')]</t>
+          <t>('0:00:07.386000', '0:00:14.409000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:00.420000', '0:01:04.920000')]</t>
+          <t>('0:00:00.446041', '0:00:04.075124')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=22.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=7.386</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=60.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=0.446041</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1134,32 +1180,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000'), ('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:40.960000', '0:00:43.300000'), ('0:00:16.200000', '0:00:18.460000')]</t>
+          <t>('0:00:16.200000', '0:00:18.460000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46', 'https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1168,6 +1214,8 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
